--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/CDE/10/seed5/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/CDE/10/seed5/result_data_RandomForest.xlsx
@@ -488,10 +488,10 @@
         <v>-12.16</v>
       </c>
       <c r="D3" t="n">
-        <v>-8.676399999999999</v>
+        <v>-8.6944</v>
       </c>
       <c r="E3" t="n">
-        <v>15.8393</v>
+        <v>16.01950000000001</v>
       </c>
     </row>
     <row r="4">
@@ -638,7 +638,7 @@
         <v>4.54</v>
       </c>
       <c r="C12" t="n">
-        <v>-11.2467</v>
+        <v>-11.3788</v>
       </c>
       <c r="D12" t="n">
         <v>-6.85</v>
@@ -675,7 +675,7 @@
         <v>-11.3</v>
       </c>
       <c r="D14" t="n">
-        <v>-7.705100000000003</v>
+        <v>-7.609999999999999</v>
       </c>
       <c r="E14" t="n">
         <v>17.29</v>
@@ -879,7 +879,7 @@
         <v>-10.59</v>
       </c>
       <c r="D26" t="n">
-        <v>-9.219299999999997</v>
+        <v>-9.063799999999993</v>
       </c>
       <c r="E26" t="n">
         <v>13.83</v>
@@ -950,7 +950,7 @@
         <v>-10.18</v>
       </c>
       <c r="E30" t="n">
-        <v>15.5909</v>
+        <v>15.87839999999999</v>
       </c>
     </row>
     <row r="31">
@@ -964,7 +964,7 @@
         <v>-11.3</v>
       </c>
       <c r="D31" t="n">
-        <v>-9.188899999999991</v>
+        <v>-9.052999999999988</v>
       </c>
       <c r="E31" t="n">
         <v>15.44</v>
@@ -978,7 +978,7 @@
         <v>3.16</v>
       </c>
       <c r="C32" t="n">
-        <v>-13.1849</v>
+        <v>-13.3833</v>
       </c>
       <c r="D32" t="n">
         <v>-8.69</v>
@@ -1032,7 +1032,7 @@
         <v>-13.02</v>
       </c>
       <c r="D35" t="n">
-        <v>-8.293799999999999</v>
+        <v>-8.389299999999995</v>
       </c>
       <c r="E35" t="n">
         <v>15.78</v>
@@ -1046,7 +1046,7 @@
         <v>9.84</v>
       </c>
       <c r="C36" t="n">
-        <v>-12.68270000000001</v>
+        <v>-12.47920000000001</v>
       </c>
       <c r="D36" t="n">
         <v>-9.050000000000001</v>
@@ -1066,7 +1066,7 @@
         <v>-12.29</v>
       </c>
       <c r="D37" t="n">
-        <v>-7.782699999999998</v>
+        <v>-7.942999999999996</v>
       </c>
       <c r="E37" t="n">
         <v>16.03</v>
@@ -1080,7 +1080,7 @@
         <v>9.66</v>
       </c>
       <c r="C38" t="n">
-        <v>-12.45969999999999</v>
+        <v>-12.74349999999999</v>
       </c>
       <c r="D38" t="n">
         <v>-9.09</v>
@@ -1188,7 +1188,7 @@
         <v>-8.220000000000001</v>
       </c>
       <c r="E44" t="n">
-        <v>16.68369999999999</v>
+        <v>16.66489999999999</v>
       </c>
     </row>
     <row r="45">
@@ -1202,7 +1202,7 @@
         <v>-11</v>
       </c>
       <c r="D45" t="n">
-        <v>-7.6334</v>
+        <v>-7.682500000000002</v>
       </c>
       <c r="E45" t="n">
         <v>16.85</v>
@@ -1216,7 +1216,7 @@
         <v>4.17</v>
       </c>
       <c r="C46" t="n">
-        <v>-14.68779999999999</v>
+        <v>-14.57049999999999</v>
       </c>
       <c r="D46" t="n">
         <v>-8.09</v>
@@ -1352,7 +1352,7 @@
         <v>6.01</v>
       </c>
       <c r="C54" t="n">
-        <v>-12.7983</v>
+        <v>-13.1804</v>
       </c>
       <c r="D54" t="n">
         <v>-8.01</v>
@@ -1369,7 +1369,7 @@
         <v>5.38</v>
       </c>
       <c r="C55" t="n">
-        <v>-13.9582</v>
+        <v>-13.7249</v>
       </c>
       <c r="D55" t="n">
         <v>-10.06</v>
@@ -1406,7 +1406,7 @@
         <v>-15.01</v>
       </c>
       <c r="D57" t="n">
-        <v>-8.158899999999999</v>
+        <v>-8.240499999999999</v>
       </c>
       <c r="E57" t="n">
         <v>16.41</v>
@@ -1426,7 +1426,7 @@
         <v>-7.51</v>
       </c>
       <c r="E58" t="n">
-        <v>16.20200000000002</v>
+        <v>16.20420000000001</v>
       </c>
     </row>
     <row r="59">
@@ -1573,7 +1573,7 @@
         <v>5.53</v>
       </c>
       <c r="C67" t="n">
-        <v>-10.9941</v>
+        <v>-11.0105</v>
       </c>
       <c r="D67" t="n">
         <v>-6.43</v>
@@ -1607,7 +1607,7 @@
         <v>4.98</v>
       </c>
       <c r="C69" t="n">
-        <v>-12.0755</v>
+        <v>-12.1628</v>
       </c>
       <c r="D69" t="n">
         <v>-6.88</v>
@@ -1658,7 +1658,7 @@
         <v>6.81</v>
       </c>
       <c r="C72" t="n">
-        <v>-11.7775</v>
+        <v>-11.5109</v>
       </c>
       <c r="D72" t="n">
         <v>-7.37</v>
@@ -1868,7 +1868,7 @@
         <v>-8.34</v>
       </c>
       <c r="E84" t="n">
-        <v>16.4397</v>
+        <v>16.51839999999999</v>
       </c>
     </row>
     <row r="85">
@@ -1953,7 +1953,7 @@
         <v>-7</v>
       </c>
       <c r="E89" t="n">
-        <v>17.29030000000001</v>
+        <v>17.20180000000002</v>
       </c>
     </row>
     <row r="90">
@@ -1981,13 +1981,13 @@
         <v>4.28</v>
       </c>
       <c r="C91" t="n">
-        <v>-10.4205</v>
+        <v>-10.61659999999999</v>
       </c>
       <c r="D91" t="n">
         <v>-5.79</v>
       </c>
       <c r="E91" t="n">
-        <v>17.91160000000002</v>
+        <v>17.93700000000002</v>
       </c>
     </row>
     <row r="92">
@@ -2004,7 +2004,7 @@
         <v>-5.32</v>
       </c>
       <c r="E92" t="n">
-        <v>18.04290000000002</v>
+        <v>18.05980000000002</v>
       </c>
     </row>
     <row r="93">
@@ -2117,7 +2117,7 @@
         <v>8.42</v>
       </c>
       <c r="C99" t="n">
-        <v>-13.1173</v>
+        <v>-13.41599999999999</v>
       </c>
       <c r="D99" t="n">
         <v>-7.98</v>
@@ -2137,7 +2137,7 @@
         <v>-14.32</v>
       </c>
       <c r="D100" t="n">
-        <v>-8.809399999999997</v>
+        <v>-8.112800000000004</v>
       </c>
       <c r="E100" t="n">
         <v>15.6</v>
@@ -2171,10 +2171,10 @@
         <v>-12</v>
       </c>
       <c r="D102" t="n">
-        <v>-7.8119</v>
+        <v>-7.731100000000001</v>
       </c>
       <c r="E102" t="n">
-        <v>16.6247</v>
+        <v>16.4599</v>
       </c>
     </row>
   </sheetData>
